--- a/src/ERP接口文档.xlsx
+++ b/src/ERP接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="21240" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
   <si>
     <t>ERP接口文档</t>
   </si>
@@ -204,7 +204,43 @@
     <t>http://127.0.0.1:8080/Erp1.1/kqParamSetContr/deleteAttShiftGroup?id=3</t>
   </si>
   <si>
-    <t>naid:班组id（必填）</t>
+    <t>id:班组id（必填）</t>
+  </si>
+  <si>
+    <t>查询部门信息</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/queryDepartment</t>
+  </si>
+  <si>
+    <t>{"retData":[{"ORDERNUM":39,"PNAME":"技术组","PARENTID":54,"PID":54,"ID":23,"NAME":"运维组"}],"retCode":"0000","retMsg":"成功！"}</t>
+  </si>
+  <si>
+    <t>增加部门信息</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/addDepartment?Name=test99&amp;ParentID=0&amp;OrderNum=10</t>
+  </si>
+  <si>
+    <t>Name：部门名（必填）ParentID：上级部门id（非必填） OrderNum：序号（非必填）</t>
+  </si>
+  <si>
+    <t>删除部门信息</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/deleteDepartment?id=87</t>
+  </si>
+  <si>
+    <t>id:部门id（必填）</t>
+  </si>
+  <si>
+    <t>修改部门信息</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/updateDepartment?Name=test88&amp;ParentID=10&amp;OrderNum=20&amp;ID=87</t>
+  </si>
+  <si>
+    <t>id:部门id（必填）Name：部门名（必填）ParentID：上级部门id（非必填） OrderNum：序号（非必填）</t>
   </si>
 </sst>
 </file>
@@ -899,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,9 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1302,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:N9"/>
+    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1423,7 +1456,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -1443,7 +1476,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
@@ -1463,7 +1496,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -1483,7 +1516,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:14">
       <c r="A11" s="11"/>
@@ -1519,7 +1552,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="16"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
@@ -1539,7 +1572,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="16"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
@@ -1559,7 +1592,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="16"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:14">
       <c r="A15" s="6" t="s">
@@ -1579,7 +1612,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="16"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
@@ -1599,7 +1632,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="16"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:14">
       <c r="A17" s="11"/>
@@ -1635,7 +1668,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="16"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="6" t="s">
@@ -1655,7 +1688,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
@@ -1675,7 +1708,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="6" t="s">
@@ -1695,7 +1728,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="6" t="s">
@@ -1715,7 +1748,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="16"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:14">
       <c r="A23" s="11"/>
@@ -1751,7 +1784,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="16"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="6" t="s">
@@ -1771,7 +1804,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="16"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="6" t="s">
@@ -1791,7 +1824,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="16"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="6" t="s">
@@ -1811,7 +1844,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="16"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="6" t="s">
@@ -1831,7 +1864,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="16"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="13"/>
@@ -1847,7 +1880,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="17"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="6" t="s">
@@ -1867,7 +1900,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="16"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="6" t="s">
@@ -1887,7 +1920,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="16"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="6" t="s">
@@ -1907,7 +1940,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="16"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="6" t="s">
@@ -1927,7 +1960,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="16"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="6" t="s">
@@ -1947,7 +1980,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="16"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="13"/>
@@ -1963,7 +1996,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
-      <c r="N35" s="17"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="6" t="s">
@@ -1983,7 +2016,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="16"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="6" t="s">
@@ -2003,7 +2036,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="16"/>
+      <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="6" t="s">
@@ -2023,7 +2056,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="16"/>
+      <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="6" t="s">
@@ -2043,7 +2076,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="16"/>
+      <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="6" t="s">
@@ -2063,7 +2096,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="16"/>
+      <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="13"/>
@@ -2079,7 +2112,7 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="17"/>
+      <c r="N41" s="16"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="6" t="s">
@@ -2099,7 +2132,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="16"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="6" t="s">
@@ -2119,7 +2152,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="16"/>
+      <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="6" t="s">
@@ -2139,7 +2172,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="16"/>
+      <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="6" t="s">
@@ -2159,7 +2192,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="16"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="6" t="s">
@@ -2179,7 +2212,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="16"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="13"/>
@@ -2195,7 +2228,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
-      <c r="N47" s="17"/>
+      <c r="N47" s="16"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="6" t="s">
@@ -2215,7 +2248,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="16"/>
+      <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="6" t="s">
@@ -2235,7 +2268,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="16"/>
+      <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="6" t="s">
@@ -2255,7 +2288,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="16"/>
+      <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="6" t="s">
@@ -2275,7 +2308,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="16"/>
+      <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="6" t="s">
@@ -2295,7 +2328,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="16"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="13"/>
@@ -2311,7 +2344,7 @@
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
-      <c r="N53" s="17"/>
+      <c r="N53" s="16"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="6" t="s">
@@ -2331,7 +2364,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="16"/>
+      <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="6" t="s">
@@ -2351,7 +2384,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="16"/>
+      <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="6" t="s">
@@ -2371,7 +2404,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="16"/>
+      <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="6" t="s">
@@ -2391,13 +2424,13 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-      <c r="N57" s="16"/>
+      <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="8"/>
@@ -2411,7 +2444,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
-      <c r="N58" s="16"/>
+      <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="13"/>
@@ -2427,7 +2460,7 @@
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
-      <c r="N59" s="17"/>
+      <c r="N59" s="16"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="6" t="s">
@@ -2447,7 +2480,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
-      <c r="N60" s="16"/>
+      <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="6" t="s">
@@ -2467,7 +2500,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
-      <c r="N61" s="16"/>
+      <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="6" t="s">
@@ -2487,7 +2520,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="N62" s="16"/>
+      <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="6" t="s">
@@ -2507,13 +2540,13 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
-      <c r="N63" s="16"/>
+      <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="8"/>
@@ -2527,7 +2560,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
-      <c r="N64" s="16"/>
+      <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="13"/>
@@ -2543,7 +2576,7 @@
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
-      <c r="N65" s="17"/>
+      <c r="N65" s="16"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="6" t="s">
@@ -2563,7 +2596,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
-      <c r="N66" s="16"/>
+      <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="6" t="s">
@@ -2583,7 +2616,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
-      <c r="N67" s="16"/>
+      <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="6" t="s">
@@ -2603,7 +2636,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
-      <c r="N68" s="16"/>
+      <c r="N68" s="15"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="6" t="s">
@@ -2623,13 +2656,13 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
-      <c r="N69" s="16"/>
+      <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="8"/>
@@ -2643,7 +2676,7 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
-      <c r="N70" s="16"/>
+      <c r="N70" s="15"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="13"/>
@@ -2659,7 +2692,7 @@
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
-      <c r="N71" s="17"/>
+      <c r="N71" s="16"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="6" t="s">
@@ -2679,7 +2712,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="16"/>
+      <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="6" t="s">
@@ -2699,7 +2732,7 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="16"/>
+      <c r="N73" s="15"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="6" t="s">
@@ -2719,7 +2752,7 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="16"/>
+      <c r="N74" s="15"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="6" t="s">
@@ -2739,13 +2772,13 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
-      <c r="N75" s="16"/>
+      <c r="N75" s="15"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="8"/>
@@ -2759,7 +2792,7 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
-      <c r="N76" s="16"/>
+      <c r="N76" s="15"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="6" t="s">
@@ -2779,7 +2812,7 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="16"/>
+      <c r="N78" s="15"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="6" t="s">
@@ -2799,7 +2832,7 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="16"/>
+      <c r="N79" s="15"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="6" t="s">
@@ -2819,7 +2852,7 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="16"/>
+      <c r="N80" s="15"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="6" t="s">
@@ -2839,13 +2872,13 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
-      <c r="N81" s="16"/>
+      <c r="N81" s="15"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="8"/>
@@ -2859,7 +2892,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
-      <c r="N82" s="16"/>
+      <c r="N82" s="15"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="6" t="s">
@@ -2879,7 +2912,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
-      <c r="N84" s="16"/>
+      <c r="N84" s="15"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="6" t="s">
@@ -2899,7 +2932,7 @@
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
-      <c r="N85" s="16"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="6" t="s">
@@ -2919,7 +2952,7 @@
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
-      <c r="N86" s="16"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="6" t="s">
@@ -2939,13 +2972,13 @@
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
-      <c r="N87" s="16"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="8"/>
@@ -2959,7 +2992,7 @@
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
-      <c r="N88" s="16"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="6" t="s">
@@ -2979,7 +3012,7 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="16"/>
+      <c r="N90" s="15"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="6" t="s">
@@ -2999,7 +3032,7 @@
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
-      <c r="N91" s="16"/>
+      <c r="N91" s="15"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="6" t="s">
@@ -3019,7 +3052,7 @@
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
-      <c r="N92" s="16"/>
+      <c r="N92" s="15"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="6" t="s">
@@ -3039,13 +3072,13 @@
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
-      <c r="N93" s="16"/>
+      <c r="N93" s="15"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C94" s="8"/>
@@ -3059,7 +3092,7 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
-      <c r="N94" s="16"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="6" t="s">
@@ -3079,7 +3112,7 @@
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
-      <c r="N96" s="16"/>
+      <c r="N96" s="15"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="6" t="s">
@@ -3099,7 +3132,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
-      <c r="N97" s="16"/>
+      <c r="N97" s="15"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="6" t="s">
@@ -3119,7 +3152,7 @@
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
-      <c r="N98" s="16"/>
+      <c r="N98" s="15"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="6" t="s">
@@ -3139,13 +3172,13 @@
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
-      <c r="N99" s="16"/>
+      <c r="N99" s="15"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="8"/>
@@ -3159,10 +3192,410 @@
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
-      <c r="N100" s="16"/>
+      <c r="N100" s="15"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="15"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="15"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="15"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="15"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="15"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="15"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="15"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="15"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="15"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="15"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="15"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="15"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="15"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="15"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="15"/>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="15"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="15"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="15"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="15"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="119">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="C5:G5"/>
@@ -3259,6 +3692,26 @@
     <mergeCell ref="B98:N98"/>
     <mergeCell ref="B99:N99"/>
     <mergeCell ref="B100:N100"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="B105:N105"/>
+    <mergeCell ref="B106:N106"/>
+    <mergeCell ref="B108:N108"/>
+    <mergeCell ref="B109:N109"/>
+    <mergeCell ref="B110:N110"/>
+    <mergeCell ref="B111:N111"/>
+    <mergeCell ref="B112:N112"/>
+    <mergeCell ref="B114:N114"/>
+    <mergeCell ref="B115:N115"/>
+    <mergeCell ref="B116:N116"/>
+    <mergeCell ref="B117:N117"/>
+    <mergeCell ref="B118:N118"/>
+    <mergeCell ref="B120:N120"/>
+    <mergeCell ref="B121:N121"/>
+    <mergeCell ref="B122:N122"/>
+    <mergeCell ref="B123:N123"/>
+    <mergeCell ref="B124:N124"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="A1:N3"/>
@@ -3280,6 +3733,10 @@
     <hyperlink ref="B85" r:id="rId14" display="http://127.0.0.1:8080/Erp1.1/kqParamSetContr/addAttShiftGroup?name=test1&amp;remark=test1" tooltip="http://127.0.0.1:8080/Erp1.1/kqParamSetContr/addAttShiftGroup?name=test1&amp;remark=test1"/>
     <hyperlink ref="B91" r:id="rId15" display="http://127.0.0.1:8080/Erp1.1/kqParamSetContr/updateAttShiftGroup?name=test2&amp;remark=test2&amp;id=4" tooltip="http://127.0.0.1:8080/Erp1.1/kqParamSetContr/updateAttShiftGroup?name=test2&amp;remark=test2&amp;id=4"/>
     <hyperlink ref="B97" r:id="rId16" display="http://127.0.0.1:8080/Erp1.1/kqParamSetContr/deleteAttShiftGroup?id=3" tooltip="http://127.0.0.1:8080/Erp1.1/kqParamSetContr/deleteAttShiftGroup?id=3"/>
+    <hyperlink ref="B103" r:id="rId17" display="http://127.0.0.1:8080/Erp/kqParamSetContr/queryDepartment" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/queryDepartment"/>
+    <hyperlink ref="B109" r:id="rId18" display="http://127.0.0.1:8080/Erp/kqParamSetContr/addDepartment?Name=test99&amp;ParentID=0&amp;OrderNum=10" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/addDepartment?Name=test99&amp;ParentID=0&amp;OrderNum=10"/>
+    <hyperlink ref="B115" r:id="rId19" display="http://127.0.0.1:8080/Erp/kqParamSetContr/deleteDepartment?id=87" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/deleteDepartment?id=87"/>
+    <hyperlink ref="B121" r:id="rId20" display="http://127.0.0.1:8080/Erp/kqParamSetContr/updateDepartment?Name=test88&amp;ParentID=10&amp;OrderNum=20&amp;ID=87" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/updateDepartment?Name=test88&amp;ParentID=10&amp;OrderNum=20&amp;ID=87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/ERP接口文档.xlsx
+++ b/src/ERP接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="21000" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="111">
   <si>
     <t>ERP接口文档</t>
   </si>
@@ -304,6 +304,51 @@
   </si>
   <si>
     <t>positionName:职位名称（必填）isPoint：重点岗位【0：非重点 1：重点】（非必填）positionTypeId：岗位类型（非必填）positionId：职位id（必填）</t>
+  </si>
+  <si>
+    <t>部门员工树</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/queryDepartmentEmployee</t>
+  </si>
+  <si>
+    <t>{"retData":[{"children":[],"employeeList":[{"name":"张悦月","state":"1","id":"822","jobNum":"267","remark":"","isDelete":"0","createDate":"2015-06-09 14:45:42.16","sex":"女","department_ID":"39","birth":"1990-07-11 00:00:00.0","entryDate":"2015-06-08 00:00:00.0","positiveDate":"2015-09-08 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-03-07 08:57:22.72","createUser":"1","account":"813","parent_ID":null,"resignType":null,"resignReason":null},{"name":"王蕊","state":"1","id":"1113","jobNum":"14","remark":"","isDelete":"0","createDate":"2016-06-04 13:13:37.88","sex":"女","department_ID":"39","birth":"1993-08-08 00:00:00.0","entryDate":"2016-06-03 00:00:00.0","positiveDate":"2016-09-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-01-13 14:44:32.227","createUser":"1","account":"1105","parent_ID":null,"resignType":null,"resignReason":null},{"name":"李珊珊","state":"1","id":"1135","jobNum":"13","remark":"","isDelete":"0","createDate":"2016-07-14 10:59:54.103","sex":"女","department_ID":"39","birth":"1984-01-26 00:00:00.0","entryDate":"2016-07-13 00:00:00.0","positiveDate":"2016-10-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-04-15 10:52:22.06","createUser":"1","account":"1127","parent_ID":null,"resignType":null,"resignReason":null},{"name":"郑子洋","state":"1","id":"1235","jobNum":"18","remark":"","isDelete":"0","createDate":"2016-10-17 16:04:05.19","sex":"女","department_ID":"39","birth":"1993-12-10 00:00:00.0","entryDate":"2016-10-17 00:00:00.0","positiveDate":"2017-02-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-03-15 11:17:27.523","createUser":"1","account":"1227","parent_ID":null,"resignType":null,"resignReason":null},{"name":"黄聪","state":"1","id":"1238","jobNum":"15","remark":"","isDelete":"0","createDate":"2016-10-20 10:00:13.743","sex":"女","department_ID":"39","birth":"1993-10-23 00:00:00.0","entryDate":"2016-10-20 00:00:00.0","positiveDate":"2017-02-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-03 09:13:31.473","createUser":"1","account":"1230","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张丽颖","state":"1","id":"1443","jobNum":"282","remark":"","isDelete":"0","createDate":"2017-05-22 10:24:56.75","sex":"女","department_ID":"39","birth":"1990-01-15 00:00:00.0","entryDate":"2017-05-22 00:00:00.0","positiveDate":"2017-09-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-03 09:38:58.587","createUser":"1","account":"1435","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张家荣","state":"1","id":"1781","jobNum":"17","remark":"","isDelete":"0","createDate":"2018-04-18 09:57:13.11","sex":"女","department_ID":"39","birth":"1993-10-05 00:00:00.0","entryDate":"2018-04-18 00:00:00.0","positiveDate":"2018-07-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1773","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张译文","state":"1","id":"1829","jobNum":"300","remark":"","isDelete":"0","createDate":"2018-05-28 16:14:43.127","sex":"男","department_ID":"39","birth":"1987-02-08 00:00:00.0","entryDate":"2018-05-28 00:00:00.0","positiveDate":"2018-09-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1821","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张淑娜","state":"1","id":"1902","jobNum":"376","remark":"","isDelete":"0","createDate":"2018-07-23 13:51:11.9","sex":"女","department_ID":"39","birth":"1995-12-30 00:00:00.0","entryDate":"2018-07-23 00:00:00.0","positiveDate":"2018-11-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1899","parent_ID":null,"resignType":null,"resignReason":null},{"name":"牟君","state":"1","id":"1928","jobNum":"401","remark":"入职：17.10.16 转正 17.12.16","isDelete":"0","createDate":"2018-08-06 17:01:50.063","sex":"女","department_ID":"39","birth":"1993-05-20 00:00:00.0","entryDate":"2018-08-06 00:00:00.0","positiveDate":"2017-12-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-09 15:45:01.7","createUser":"1","account":"1925","parent_ID":null,"resignType":null,"resignReason":null},{"name":"杨洋","state":"1","id":"1939","jobNum":"412","remark":"","isDelete":"0","createDate":"2018-08-20 13:33:26.893","sex":"男","department_ID":"39","birth":"1985-01-20 00:00:00.0","entryDate":"2018-08-20 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":"2018-08-20 16:10:14.97","createUser":"1","account":"1936","parent_ID":null,"resignType":null,"resignReason":null},{"name":"陈壮","state":"1","id":"1945","jobNum":"418","remark":"","isDelete":"0","createDate":"2018-08-21 09:59:07.577","sex":"男","department_ID":"39","birth":"1995-09-09 00:00:00.0","entryDate":"2018-08-21 00:00:00.0","positiveDate":"2018-12-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1942","parent_ID":null,"resignType":null,"resignReason":null},{"name":"陈鑫","state":"1","id":"1971","jobNum":"443","remark":"","isDelete":"0","createDate":"2018-09-16 10:33:32.897","sex":"男","department_ID":"39","birth":"1989-11-07 00:00:00.0","entryDate":"2018-09-17 00:00:00.0","positiveDate":"2018-12-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-09-19 11:06:31.59","createUser":"1","account":"1968","parent_ID":null,"resignType":null,"resignReason":null},{"name":"王金霞","state":"1","id":"2005","jobNum":"478","remark":"","isDelete":"0","createDate":"2018-10-22 14:38:49.883","sex":"女","department_ID":"39","birth":"1987-10-12 00:00:00.0","entryDate":"2018-10-22 00:00:00.0","positiveDate":"2019-01-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-02-02 10:23:10.857","createUser":"1","account":"2002","parent_ID":null,"resignType":null,"resignReason":null},{"name":"朱梓瑜","state":"1","id":"2079","jobNum":"550","remark":"","isDelete":"0","createDate":"2018-12-24 13:09:21.997","sex":"女","department_ID":"39","birth":"1992-10-27 00:00:00.0","entryDate":"2018-12-24 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2076","parent_ID":null,"resignType":null,"resignReason":null},{"name":"时鑫","state":"1","id":"2146","jobNum":"614","remark":"","isDelete":"0","createDate":"2019-02-26 14:56:42.317","sex":"女","department_ID":"39","birth":"1998-06-27 00:00:00.0","entryDate":"2019-02-26 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2143","parent_ID":null,"resignType":null,"resignReason":null},{"name":"魏姗","state":"1","id":"2153","jobNum":"621","remark":"","isDelete":"0","createDate":"2019-03-04 14:57:29.423","sex":"女","department_ID":"39","birth":"1994-09-24 00:00:00.0","entryDate":"2019-03-04 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2150","parent_ID":null,"resignType":null,"resignReason":null}],"name":"人力综合办","id":"39","parentID":"0","orderNum":"1"},{"children":[],"employeeList":[{"name":"詹美钗","state":"1","id":"158","jobNum":"194","remark":"","isDelete":"0","createDate":"2014-07-02 16:10:29.88","sex":"女","department_ID":"40","birth":"2013-08-29 00:00:00.0","entryDate":"2007-01-01 00:00:00.0","positiveDate":"2007-01-01 00:00:00.0","resignDate":"1900-01-01 00:00:00.0","photo":null,"updateDate":"2017-05-18 13:28:05.787","createUser":"0","account":"223","parent_ID":null,"resignType":null,"resignReason":null},{"name":"柯志展","state":"1","id":"903","jobNum":"6","remark":"","isDelete":"0","createDate":"2015-09-21 13:52:54.113","sex":"男","department_ID":"40","birth":"1994-11-03 00:00:00.0","entryDate":"2015-09-21 00:00:00.0","positiveDate":"2016-01-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 10:16:52.993","createUser":"1","account":"894","parent_ID":null,"resignType":null,"resignReason":null},{"name":"黄婷婷","state":"1","id":"1187","jobNum":"2","remark":"","isDelete":"0","createDate":"2016-09-11 09:35:22.77","sex":"女","department_ID":"40","birth":"1995-07-13 00:00:00.0","entryDate":"2016-09-07 00:00:00.0","positiveDate":"2016-12-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 10:16:05.813","createUser":"1","account":"1179","parent_ID":null,"resignType":null,"resignReason":null},{"name":"林丽娟","state":"1","id":"1316","jobNum":"5","remark":"","isDelete":"0","createDate":"2017-02-13 09:30:56.133","sex":"女","department_ID":"40","birth":"1983-05-16 00:00:00.0","entryDate":"2017-02-11 00:00:00.0","positiveDate":"2017-05-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-20 14:18:03.887","createUser":"1","account":"1308","parent_ID":null,"resignType":null,"resignReason":null},{"name":"黄秋星","state":"1","id":"1317","jobNum":"0","remark":"","isDelete":"0","createDate":"2017-02-13 09:32:12.917","sex":"女","department_ID":"40","birth":"1995-11-15 00:00:00.0","entryDate":"2017-02-06 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1309","parent_ID":null,"resignType":null,"resignReason":null},{"name":"林杰","state":"1","id":"1375","jobNum":"0","remark":"","isDelete":"0","createDate":"2017-04-10 10:52:25.227","sex":"男","department_ID":"40","birth":"1991-02-20 00:00:00.0","entryDate":"2017-02-24 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1367","parent_ID":null,"resignType":null,"resignReason":null},{"name":"王琳","state":"1","id":"1581","jobNum":"4","remark":"","isDelete":"0","createDate":"2017-09-11 10:00:19.127","sex":"女","department_ID":"40","birth":"1979-10-14 00:00:00.0","entryDate":"2017-09-11 00:00:00.0","positiveDate":"2017-09-11 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-03-18 17:08:50.777","createUser":"1","account":"1573","parent_ID":null,"resignType":null,"resignReason":null},{"name":"鲁丽军","state":"1","id":"1767","jobNum":"8","remark":"","isDelete":"0","createDate":"2018-04-09 11:48:10.593","sex":"女","department_ID":"40","birth":"1987-10-12 00:00:00.0","entryDate":"2018-04-09 00:00:00.0","positiveDate":"2018-07-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1759","parent_ID":null,"resignType":null,"resignReason":null},{"name":"林碧君","state":"1","id":"1819","jobNum":"3","remark":"","isDelete":"0","createDate":"2018-05-18 09:55:36.237","sex":"女","department_ID":"40","birth":"1994-11-03 00:00:00.0","entryDate":"2018-05-20 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":"2018-05-20 14:39:33.43","createUser":"1","account":"1811","parent_ID":null,"resignType":null,"resignReason":null},{"name":"樊佳琪","state":"1","id":"1862","jobNum":"339","remark":"","isDelete":"0","createDate":"2018-06-19 11:11:59.793","sex":"女","department_ID":"40","birth":"1992-11-24 00:00:00.0","entryDate":"2018-06-19 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":"2019-01-02 10:14:30.557","createUser":"1","account":"1859","parent_ID":null,"resignType":null,"resignReason":null},{"name":"黄晓锋","state":"1","id":"1936","jobNum":"409","remark":"","isDelete":"0","createDate":"2018-08-16 08:55:13.063","sex":"男","department_ID":"40","birth":"1995-08-30 00:00:00.0","entryDate":"2018-08-14 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1933","parent_ID":null,"resignType":null,"resignReason":null},{"name":"叶晶晶","state":"1","id":"1977","jobNum":"449","remark":"","isDelete":"0","createDate":"2018-09-20 11:53:33.49","sex":"女","department_ID":"40","birth":"1991-11-18 00:00:00.0","entryDate":"2018-09-20 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":"2019-01-02 10:19:41.813","createUser":"1","account":"1974","parent_ID":null,"resignType":null,"resignReason":null},{"name":"刘洁","state":"1","id":"1989","jobNum":"462","remark":"","isDelete":"0","createDate":"2018-10-08 16:15:56.217","sex":"女","department_ID":"40","birth":"1995-11-06 00:00:00.0","entryDate":"2018-10-08 00:00:00.0","positiveDate":"2019-01-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1986","parent_ID":null,"resignType":null,"resignReason":null},{"name":"刘秀","state":"1","id":"1990","jobNum":"463","remark":"","isDelete":"0","createDate":"2018-10-08 16:35:57.357","sex":"女","department_ID":"40","birth":"1994-03-02 00:00:00.0","entryDate":"2018-10-08 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1987","parent_ID":null,"resignType":null,"resignReason":null},{"name":"徐少强","state":"1","id":"2013","jobNum":"486","remark":"圣安","isDelete":"0","createDate":"2018-10-24 13:21:22.653","sex":"男","department_ID":"40","birth":"1998-10-15 00:00:00.0","entryDate":"2018-10-24 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2010","parent_ID":null,"resignType":null,"resignReason":null},{"name":"潘芳","state":"1","id":"2016","jobNum":"489","remark":"","isDelete":"0","createDate":"2018-11-02 09:54:17.97","sex":"女","department_ID":"40","birth":"1997-08-13 00:00:00.0","entryDate":"2018-11-01 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":"2018-11-02 09:54:54.303","createUser":"1","account":"2013","parent_ID":null,"resignType":null,"resignReason":null},{"name":"林秀清","state":"1","id":"2155","jobNum":"623","remark":"圣安米悦","isDelete":"0","createDate":"2019-03-04 15:23:45.2","sex":"女","department_ID":"40","birth":"1982-07-06 00:00:00.0","entryDate":"2019-03-04 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2152","parent_ID":null,"resignType":null,"resignReason":null}],"name":"财务部","id":"40","parentID":"0","orderNum":"0"},{"children":[{"children":[],"employeeList":[{"name":"李勉龙","state":"1","id":"636","jobNum":"0","remark":"","isDelete":"1","createDate":"2014-10-05 10:43:59.843","sex":"男","department_ID":"24","birth":"1992-04-01 00:00:00.0","entryDate":"2014-10-03 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":"2014-11-26 16:07:42.93","createUser":"1","account":"627","parent_ID":null,"resignType":null,"resignReason":null},{"name":"李勉龙","state":"1","id":"946","jobNum":"0","remark":"","isDelete":"1","createDate":"2015-12-11 13:56:17.017","sex":"男","department_ID":"24","birth":"1992-04-01 00:00:00.0","entryDate":"2015-12-11 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"937","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张佳辰","state":"1","id":"1000","jobNum":"53","remark":"","isDelete":"0","createDate":"2016-02-29 13:06:39.547","sex":"男","department_ID":"24","birth":"1989-01-24 00:00:00.0","entryDate":"2016-02-29 00:00:00.0","positiveDate":"2016-07-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 13:14:25.733","createUser":"1","account":"991","parent_ID":null,"resignType":null,"resignReason":null},{"name":"李勉龙","state":"1","id":"1185","jobNum":"47","remark":"","isDelete":"0","createDate":"2016-09-11 09:32:36.86","sex":"男","department_ID":"24","birth":"1992-04-01 00:00:00.0","entryDate":"2015-12-11 00:00:00.0","positiveDate":"2015-12-11 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 13:13:51.367","createUser":"1","account":"1177","parent_ID":null,"resignType":null,"resignReason":null},{"name":"杨扬","state":"1","id":"1254","jobNum":"50","remark":"","isDelete":"0","createDate":"2016-11-07 09:14:42.98","sex":"男","department_ID":"24","birth":"1992-12-18 00:00:00.0","entryDate":"2016-11-07 00:00:00.0","positiveDate":"2017-03-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:42:03.893","createUser":"1","account":"1246","parent_ID":null,"resignType":null,"resignReason":null},{"name":"易超","state":"1","id":"1385","jobNum":"48","remark":"","isDelete":"0","createDate":"2017-04-19 09:08:33.463","sex":"男","department_ID":"24","birth":"1996-06-23 00:00:00.0","entryDate":"2017-04-19 00:00:00.0","positiveDate":"2017-08-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:41:39.05","createUser":"1","account":"1377","parent_ID":null,"resignType":null,"resignReason":null},{"name":"陈鑫","state":"1","id":"1447","jobNum":"49","remark":"","isDelete":"0","createDate":"2017-05-25 11:33:51.967","sex":"男","department_ID":"24","birth":"1993-10-22 00:00:00.0","entryDate":"2017-05-25 00:00:00.0","positiveDate":"2017-09-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 13:37:58.53","createUser":"1","account":"1439","parent_ID":null,"resignType":null,"resignReason":null},{"name":"赵新霞","state":"1","id":"1548","jobNum":"55","remark":"","isDelete":"0","createDate":"2017-07-31 11:16:45.523","sex":"女","department_ID":"24","birth":"1995-06-03 00:00:00.0","entryDate":"2017-07-31 00:00:00.0","positiveDate":"2017-11-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 13:12:21.083","createUser":"1","account":"1540","parent_ID":null,"resignType":null,"resignReason":null},{"name":"郝文宇","state":"1","id":"1938","jobNum":"411","remark":"","isDelete":"0","createDate":"2018-08-20 13:30:01.697","sex":"男","department_ID":"24","birth":"1995-11-27 00:00:00.0","entryDate":"2018-08-20 00:00:00.0","positiveDate":"2018-11-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 09:19:07.76","createUser":"1","account":"1935","parent_ID":null,"resignType":null,"resignReason":null},{"name":"贾泽相","state":"1","id":"1964","jobNum":"436","remark":"","isDelete":"0","createDate":"2018-09-12 10:51:43.187","sex":"男","department_ID":"24","birth":"1999-02-28 00:00:00.0","entryDate":"2018-09-12 00:00:00.0","positiveDate":"2018-09-12 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1961","parent_ID":null,"resignType":null,"resignReason":null},{"name":"何李雪","state":"1","id":"1997","jobNum":"470","remark":"","isDelete":"0","createDate":"2018-10-16 11:44:42.653","sex":"女","department_ID":"24","birth":"1997-12-11 00:00:00.0","entryDate":"2018-10-16 00:00:00.0","positiveDate":"2019-02-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1994","parent_ID":null,"resignType":null,"resignReason":null},{"name":"李敏慧","state":"1","id":"2036","jobNum":"508","remark":"","isDelete":"0","createDate":"2018-11-20 13:16:32.84","sex":"女","department_ID":"24","birth":"1996-05-18 00:00:00.0","entryDate":"2018-11-19 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2033","parent_ID":null,"resignType":null,"resignReason":null},{"name":"李建春","state":"1","id":"2045","jobNum":"516","remark":"","isDelete":"0","createDate":"2018-11-20 14:51:06.56","sex":"女","department_ID":"24","birth":"1998-05-30 00:00:00.0","entryDate":"2018-11-19 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2042","parent_ID":null,"resignType":null,"resignReason":null},{"name":"刘欣荣","state":"1","id":"2060","jobNum":"531","remark":"","isDelete":"0","createDate":"2018-11-26 13:12:16.407","sex":"女","department_ID":"24","birth":"1998-04-16 00:00:00.0","entryDate":"2018-11-26 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2057","parent_ID":null,"resignType":null,"resignReason":null},{"name":"董斌","state":"1","id":"2159","jobNum":"627","remark":"","isDelete":"0","createDate":"2019-03-04 15:50:58.16","sex":"男","department_ID":"24","birth":"1994-07-23 00:00:00.0","entryDate":"2019-03-04 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2156","parent_ID":null,"resignType":null,"resignReason":null},{"name":"高远胜","state":"1","id":"2168","jobNum":"634","remark":"","isDelete":"0","createDate":"2019-03-11 11:27:57.34","sex":"男","department_ID":"24","birth":"1998-03-16 00:00:00.0","entryDate":"2019-03-11 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2165","parent_ID":null,"resignType":null,"resignReason":null},{"name":"李明","state":"1","id":"2171","jobNum":"637","remark":"","isDelete":"0","createDate":"2019-03-11 11:40:50.6","sex":"男","department_ID":"24","birth":"1997-08-22 00:00:00.0","entryDate":"2019-03-11 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":"2019-03-11 11:57:22.303","createUser":"1","account":"2168","parent_ID":null,"resignType":null,"resignReason":null}],"name":"广州运营","id":"24","parentID":"48","orderNum":"8"},{"children":[],"employeeList":[{"name":"test","state":"1","id":"550","jobNum":"0","remark":"test","isDelete":"1","createDate":"2014-07-02 16:10:32.85","sex":"男","department_ID":"28","birth":"2014-03-20 00:00:00.0","entryDate":"2014-03-20 00:00:00.0","positiveDate":null,"resignDate":"1900-01-01 00:00:00.0","photo":null,"updateDate":null,"createUser":"0","account":"0","parent_ID":null,"resignType":null,"resignReason":null},{"name":"覃谊凤","state":"1","id":"835","jobNum":"290","remark":"","isDelete":"0","createDate":"2015-07-02 09:41:30.117","sex":"女","department_ID":"28","birth":"1986-04-25 00:00:00.0","entryDate":"2015-07-01 00:00:00.0","positiveDate":"2015-08-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 13:46:05.053","createUser":"1","account":"826","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张修平","state":"1","id":"1030","jobNum":"69","remark":"","isDelete":"0","createDate":"2016-03-09 10:15:37.437","sex":"男","department_ID":"28","birth":"1994-10-20 00:00:00.0","entryDate":"2016-03-08 00:00:00.0","positiveDate":"2016-06-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-03-16 15:21:17.7","createUser":"1","account":"1021","parent_ID":null,"resignType":null,"resignReason":null},{"name":"刘鑫","state":"1","id":"1458","jobNum":"191","remark":"二次入职","isDelete":"0","createDate":"2017-06-05 10:30:48.627","sex":"男","department_ID":"28","birth":"1991-02-16 00:00:00.0","entryDate":"2017-06-05 00:00:00.0","positiveDate":"2017-06-05 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-11-26 13:17:21.357","createUser":"1","account":"1450","parent_ID":null,"resignType":null,"resignReason":null},{"name":"赵希恺","state":"1","id":"1630","jobNum":"68","remark":"","isDelete":"0","createDate":"2017-11-13 11:48:40.8","sex":"男","department_ID":"28","birth":"1998-12-31 00:00:00.0","entryDate":"2017-11-13 00:00:00.0","positiveDate":"2018-02-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-03-16 15:11:52.437","createUser":"1","account":"1622","parent_ID":null,"resignType":null,"resignReason":null},{"name":"曹书瑜","state":"1","id":"1773","jobNum":"71","remark":"","isDelete":"0","createDate":"2018-04-16 13:12:49.12","sex":"女","department_ID":"28","birth":"1997-03-17 00:00:00.0","entryDate":"2018-04-16 00:00:00.0","positiveDate":"2018-06-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-10-11 10:18:12.193","createUser":"1","account":"1765","parent_ID":null,"resignType":null,"resignReason":null},{"name":"刘鑫","state":"1","id":"1967","jobNum":"439","remark":"","isDelete":"0","createDate":"2018-09-13 09:39:22.43","sex":"男","department_ID":"28","birth":"1999-04-10 00:00:00.0","entryDate":"2018-09-13 00:00:00.0","positiveDate":"2019-01-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1964","parent_ID":null,"resignType":null,"resignReason":null},{"name":"王子福","state":"1","id":"1987","jobNum":"460","remark":"","isDelete":"0","createDate":"2018-10-08 15:37:16.347","sex":"男","department_ID":"28","birth":"1996-03-13 00:00:00.0","entryDate":"2018-10-08 00:00:00.0","positiveDate":"2019-02-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-12-16 10:52:30.513","createUser":"1","account":"1984","parent_ID":null,"resignType":null,"resignReason":null},{"name":"王学民","state":"1","id":"1999","jobNum":"472","remark":"","isDelete":"0","createDate":"2018-10-16 11:54:43.81","sex":"男","department_ID":"28","birth":"1994-10-16 00:00:00.0","entryDate":"2018-10-16 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"1996","parent_ID":null,"resignType":null,"resignReason":null},{"name":"蒋文","state":"1","id":"2014","jobNum":"487","remark":"","isDelete":"0","createDate":"2018-10-29 13:47:41.943","sex":"男","department_ID":"28","birth":"1995-10-02 00:00:00.0","entryDate":"2018-10-29 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2011","parent_ID":null,"resignType":null,"resignReason":null},{"name":"王静","state":"1","id":"2040","jobNum":"512","remark":"","isDelete":"0","createDate":"2018-11-20 14:14:47.01","sex":"女","department_ID":"28","birth":"1996-08-29 00:00:00.0","entryDate":"2018-11-19 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2037","parent_ID":null,"resignType":null,"resignReason":null},{"name":"方金金","state":"1","id":"2048","jobNum":"519","remark":"","isDelete":"0","createDate":"2018-11-20 15:40:01.503","sex":"女","department_ID":"28","birth":"1997-11-14 00:00:00.0","entryDate":"2018-11-19 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2045","parent_ID":null,"resignType":null,"resignReason":null},{"name":"黄文娟","state":"1","id":"2049","jobNum":"520","remark":"","isDelete":"0","createDate":"2018-11-20 16:18:59.443","sex":"女","department_ID":"28","birth":"1997-10-16 00:00:00.0","entryDate":"2018-11-19 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2046","parent_ID":null,"resignType":null,"resignReason":null}],"name":"国防运营","id":"28","parentID":"48","orderNum":"10"},{"children":[],"employeeList":[{"name":"李利青","state":"1","id":"196","jobNum":"127","remark":"","isDelete":"0","createDate":"2014-07-02 16:10:30.133","sex":"女","department_ID":"44","birth":"1987-05-23 00:00:00.0","entryDate":"2012-11-07 00:00:00.0","positiveDate":"2013-02-07 00:00:00.0","resignDate":"1900-01-01 00:00:00.0","photo":null,"updateDate":"2018-09-07 15:28:15.733","createUser":"0","account":"13","parent_ID":null,"resignType":null,"resignReason":null},{"name":"杜国梅","state":"1","id":"1059","jobNum":"125","remark":"","isDelete":"0","createDate":"2016-03-28 14:38:00.483","sex":"女","department_ID":"44","birth":"1989-07-01 00:00:00.0","entryDate":"2016-03-25 00:00:00.0","positiveDate":"2016-07-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-04-15 10:50:06.037","createUser":"1","account":"1050","parent_ID":null,"resignType":null,"resignReason":null},{"name":"魏秋瑾","state":"1","id":"1066","jobNum":"126","remark":"","isDelete":"0","createDate":"2016-03-30 10:20:28.27","sex":"女","department_ID":"44","birth":"1988-07-05 00:00:00.0","entryDate":"2016-03-30 00:00:00.0","positiveDate":"2016-07-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:55:03.16","createUser":"1","account":"1057","parent_ID":null,"resignType":null,"resignReason":null},{"name":"储栢伟","state":"1","id":"1078","jobNum":"130","remark":"","isDelete":"0","createDate":"2016-04-15 11:44:37.97","sex":"女","department_ID":"44","birth":"1992-09-20 00:00:00.0","entryDate":"2016-04-15 00:00:00.0","positiveDate":"2016-07-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:56:24.247","createUser":"1","account":"1070","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张海亮","state":"1","id":"1461","jobNum":"155","remark":"","isDelete":"0","createDate":"2017-06-05 11:37:14.083","sex":"男","department_ID":"44","birth":"1984-05-17 00:00:00.0","entryDate":"2017-06-05 00:00:00.0","positiveDate":"2017-09-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 15:41:00.263","createUser":"1","account":"1453","parent_ID":null,"resignType":null,"resignReason":null},{"name":"杨立莹","state":"1","id":"1695","jobNum":"131","remark":"","isDelete":"0","createDate":"2018-02-07 09:55:27.843","sex":"女","department_ID":"44","birth":"1993-09-03 00:00:00.0","entryDate":"2018-02-07 00:00:00.0","positiveDate":"2018-05-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:55:28.433","createUser":"1","account":"1687","parent_ID":null,"resignType":null,"resignReason":null},{"name":"侯继红","state":"1","id":"1734","jobNum":"240","remark":"","isDelete":"0","createDate":"2018-03-15 10:10:50.063","sex":"女","department_ID":"44","birth":"1983-01-17 00:00:00.0","entryDate":"2018-03-14 00:00:00.0","positiveDate":"2018-07-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:56:47.513","createUser":"1","account":"1726","parent_ID":null,"resignType":null,"resignReason":null},{"name":"郑洁","state":"1","id":"1849","jobNum":"326","remark":"","isDelete":"0","createDate":"2018-06-11 13:26:00.58","sex":"女","department_ID":"44","birth":"1994-03-22 00:00:00.0","entryDate":"2018-06-11 00:00:00.0","positiveDate":"2018-10-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:55:39.75","createUser":"1","account":"1846","parent_ID":null,"resignType":null,"resignReason":null},{"name":"戴海文","state":"1","id":"1897","jobNum":"374","remark":"","isDelete":"0","createDate":"2018-07-19 09:51:04.89","sex":"男","department_ID":"44","birth":"1990-01-06 00:00:00.0","entryDate":"2018-07-19 00:00:00.0","positiveDate":"2018-11-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 14:57:12.803","createUser":"1","account":"1894","parent_ID":null,"resignType":null,"resignReason":null},{"name":"宋晓曼","state":"1","id":"2022","jobNum":"495","remark":"","isDelete":"0","createDate":"2018-11-12 11:06:34.987","sex":"女","department_ID":"44","birth":"1999-03-16 00:00:00.0","entryDate":"2018-11-12 00:00:00.0","positiveDate":"2019-02-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-11-13 17:09:08.91","createUser":"1","account":"2019","parent_ID":null,"resignType":null,"resignReason":null},{"name":"刘洪荥","state":"1","id":"2152","jobNum":"620","remark":"","isDelete":"0","createDate":"2019-03-01 11:13:31.987","sex":"女","department_ID":"44","birth":"1999-08-07 00:00:00.0","entryDate":"2019-03-01 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2149","parent_ID":null,"resignType":null,"resignReason":null},{"name":"杜国梅测试","state":"1","id":"2165","jobNum":"0","remark":"杜国梅测试用","isDelete":"0","createDate":"2019-03-08 09:56:37.347","sex":"未知","department_ID":"44","birth":"2010-01-01 00:00:00.0","entryDate":"2019-03-08 00:00:00.0","positiveDate":null,"resignDate":null,"photo":null,"updateDate":null,"createUser":"1","account":"2162","parent_ID":null,"resignType":null,"resignReason":null}],"name":"脑康客服","id":"44","parentID":"48","orderNum":"5"},{"children":[],"employeeList":[{"name":"蒙素香","state":"1","id":"724","jobNum":"150","remark":"","isDelete":"0","createDate":"2015-03-11 17:30:39.74","sex":"女","department_ID":"45","birth":"1993-08-22 00:00:00.0","entryDate":"2015-03-11 00:00:00.0","positiveDate":"2015-08-10 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 15:11:31.677","createUser":"1","account":"715","parent_ID":null,"resignType":null,"resignReason":null},{"name":"王玉姣","state":"1","id":"984","jobNum":"117","remark":"","isDelete":"0","createDate":"2016-02-16 15:38:07.603","sex":"女","department_ID":"45","birth":"1986-07-07 00:00:00.0","entryDate":"2016-02-16 00:00:00.0","positiveDate":"2016-06-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-09-07 15:27:02.54","createUser":"1","account":"975","parent_ID":null,"resignType":null,"resignReason":null},{"name":"陈建丽","state":"1","id":"1346","jobNum":"224","remark":"","isDelete":"0","createDate":"2017-03-13 10:59:59.413","sex":"女","department_ID":"45","birth":"1992-01-17 00:00:00.0","entryDate":"2017-03-13 00:00:00.0","positiveDate":"2017-06-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2018-08-21 15:11:17.273","createUser":"1","account":"1338","parent_ID":null,"resignType":null,"resignReason":null},{"name":"苗俊霞","state":"1","id":"1476","jobNum":"170","remark":"","isDelete":"0","createDate":"2017-06-15 09:49:46.44","sex":"女","department_ID":"45","birth":"1990-11-02 00:00:00.0","entryDate":"2017-06-15 00:00:00.0","positiveDate":"2017-10-01 00:00:00.0","resignDate":null,"photo":null,"updateDate":"2019-01-02 13:40:53.94","createUser":"1","account":"1468","parent_ID":null,"resignType":null,"resignReason":null},{"name":"张英楠","state":"1","id":"1480","jobNum":"153","remark":"","isDelete":"0","createDate":"2017-06-19 10:40:52.893","sex":"女","department_ID":"45","birth":"1998-09-20 00:00:00.0","entr</t>
+  </si>
+  <si>
+    <t>员工排班计划查询</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/queryEmpAttShift?userId=860&amp;startTime=2017-02-03&amp;endTime=2017-02-09&amp;flag=7</t>
+  </si>
+  <si>
+    <t>userId：员工id（必填） startTime：查询时间（必填） endTime：查询时间（必填） flag：查询类型（7天或30天）（非必填，如果不填默认查询7天）</t>
+  </si>
+  <si>
+    <t>7天Json：{"retData":{"timeList":[16,0,8,8,8,8],"startTime":[8,0,14,14,8,6],"endTime":["0 - 6.0","0 - 0","0 - 0","0 - 0","0 - 0","0 - 0"]},"retCode":"0000","retMsg":"成功！"}</t>
+  </si>
+  <si>
+    <t>30天json:{"retData":{"monData":["早班+夜班","公休","中3","中3","早班","早早班","公休","中3","中3","早班","早早班","早早班","公休","中3","中3","中3","夜班","公休","中3","中3","中3","早班","早早班","早早班","中3","中3","正常","早早班"]},"retCode":"0000","retMsg":"成功！"}</t>
+  </si>
+  <si>
+    <t>查询全部员工排班计划（删除排班计划模块）</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/queryAllEmpAttShift?begDate=2017-02-01&amp;endDate=2017-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begDate：查询时间（必填） endTime：查询时间（必填） </t>
+  </si>
+  <si>
+    <t>{"retData":[{"ISDELETE":false,"STARTTIME":"2017-02-01 00:00","ENDTIME":"2017-02-01 00:00","JOBNUM":"94","ID":300781,"EMPNAME":"于洁","TYPE":2,"SHIFTDATE":"2017-02-01 00:00","NAME":"春节"}],"retCode":"0000","retMsg":"成功！"}</t>
+  </si>
+  <si>
+    <t>删除员工排班计划（删除排班计划模块）</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/Erp/kqParamSetContr/updateEmpAttShift?id=301201</t>
+  </si>
+  <si>
+    <t>id:排班计划id（必填）</t>
   </si>
 </sst>
 </file>
@@ -311,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -333,20 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -355,39 +386,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,6 +398,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,32 +425,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,9 +499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +508,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +535,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +613,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,37 +643,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,19 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,102 +715,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -752,31 +797,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,16 +850,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,137 +939,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,6 +1119,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,10 +1478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151:N151"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4357,8 +4437,458 @@
       <c r="M166" s="8"/>
       <c r="N166" s="15"/>
     </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="15"/>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="15"/>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="15"/>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="15"/>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="8"/>
+      <c r="N172" s="15"/>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="8"/>
+      <c r="N174" s="15"/>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
+      <c r="N175" s="15"/>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="8"/>
+      <c r="N176" s="15"/>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="8"/>
+      <c r="N177" s="15"/>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="8"/>
+      <c r="N178" s="15"/>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="19"/>
+      <c r="B179" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
+      <c r="N179" s="15"/>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="15"/>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
+      <c r="N182" s="15"/>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="8"/>
+      <c r="N183" s="15"/>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="8"/>
+      <c r="N184" s="15"/>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="8"/>
+      <c r="N185" s="15"/>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="19"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
+      <c r="N186" s="15"/>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="15"/>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="8"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="8"/>
+      <c r="N189" s="15"/>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="N190" s="15"/>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="8"/>
+      <c r="N191" s="15"/>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="8"/>
+      <c r="N192" s="15"/>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="19"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
+      <c r="K193" s="8"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="154">
+  <mergeCells count="180">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="C5:G5"/>
@@ -4510,7 +5040,33 @@
     <mergeCell ref="B164:N164"/>
     <mergeCell ref="B165:N165"/>
     <mergeCell ref="B166:N166"/>
+    <mergeCell ref="B168:N168"/>
+    <mergeCell ref="B169:N169"/>
+    <mergeCell ref="B170:N170"/>
+    <mergeCell ref="B171:N171"/>
+    <mergeCell ref="B172:N172"/>
+    <mergeCell ref="B174:N174"/>
+    <mergeCell ref="B175:N175"/>
+    <mergeCell ref="B176:N176"/>
+    <mergeCell ref="B177:N177"/>
+    <mergeCell ref="B178:N178"/>
+    <mergeCell ref="B179:N179"/>
+    <mergeCell ref="B181:N181"/>
+    <mergeCell ref="B182:N182"/>
+    <mergeCell ref="B183:N183"/>
+    <mergeCell ref="B184:N184"/>
+    <mergeCell ref="B185:N185"/>
+    <mergeCell ref="B186:N186"/>
+    <mergeCell ref="B188:N188"/>
+    <mergeCell ref="B189:N189"/>
+    <mergeCell ref="B190:N190"/>
+    <mergeCell ref="B191:N191"/>
+    <mergeCell ref="B192:N192"/>
+    <mergeCell ref="B193:N193"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A192:A193"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="A1:N3"/>
   </mergeCells>
@@ -4542,6 +5098,10 @@
     <hyperlink ref="B151" r:id="rId25" display="http://127.0.0.1:8080/Erp/kqParamSetContr/queryPositionData" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/queryPositionData"/>
     <hyperlink ref="B157" r:id="rId26" display="http://127.0.0.1:8080/Erp/kqParamSetContr/addPositionData?positionName=test88&amp;isPoint=1&amp;positionTypeId=2" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/addPositionData?positionName=test88&amp;isPoint=1&amp;positionTypeId=2"/>
     <hyperlink ref="B163" r:id="rId27" display="http://127.0.0.1:8080/Erp/kqParamSetContr/updatePositionData?positionName=test88&amp;isPoint=1&amp;positionTypeId=2&amp;positionId=103" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/updatePositionData?positionName=test88&amp;isPoint=1&amp;positionTypeId=2&amp;positionId=103"/>
+    <hyperlink ref="B169" r:id="rId28" display="http://127.0.0.1:8080/Erp/kqParamSetContr/queryDepartmentEmployee" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/queryDepartmentEmployee"/>
+    <hyperlink ref="B175" r:id="rId29" display="http://127.0.0.1:8080/Erp/kqParamSetContr/queryEmpAttShift?userId=860&amp;startTime=2017-02-03&amp;endTime=2017-02-09&amp;flag=7" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/queryEmpAttShift?userId=860&amp;startTime=2017-02-03&amp;endTime=2017-02-09&amp;flag=7"/>
+    <hyperlink ref="B182" r:id="rId30" display="http://127.0.0.1:8080/Erp/kqParamSetContr/queryAllEmpAttShift?begDate=2017-02-01&amp;endDate=2017-02-01" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/queryAllEmpAttShift?begDate=2017-02-01&amp;endDate=2017-02-01"/>
+    <hyperlink ref="B189" r:id="rId31" display="http://127.0.0.1:8080/Erp/kqParamSetContr/updateEmpAttShift?id=301201" tooltip="http://127.0.0.1:8080/Erp/kqParamSetContr/updateEmpAttShift?id=301201"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
